--- a/ModelApp/data.xlsx
+++ b/ModelApp/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a559ae4da6710b/Study/Наука/ModelApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a559ae4da6710b/Study/Наука/Мат. модели/ModelApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{9A37F43C-2488-8F40-A7C5-E74C32408FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82B4299F-E96D-4A85-9C2E-8DE4C4395601}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{9A37F43C-2488-8F40-A7C5-E74C32408FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{375E472D-108D-4AA3-96F1-6BB872310446}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="16200" windowHeight="10060" xr2:uid="{D24D3E3D-C949-9440-B429-53561CC6B4B1}"/>
+    <workbookView xWindow="-28035" yWindow="465" windowWidth="27000" windowHeight="14235" xr2:uid="{D24D3E3D-C949-9440-B429-53561CC6B4B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,25 +449,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0A77C0-A5FE-4C4D-83DA-E4705CE2428E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="9" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="D1" s="14" t="s">
         <v>1</v>
@@ -478,7 +478,7 @@
       </c>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -524,7 +524,7 @@
         <v>89.031000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>83.813999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>6.524</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,7 +593,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -616,7 +616,7 @@
         <v>176.554</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,7 +639,7 @@
         <v>12.548</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -662,7 +662,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -685,7 +685,7 @@
         <v>175.29300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -708,10 +708,8 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K12" s="13">
-        <v>7748.0129999999999</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
